--- a/data/trans_dic/P19D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1317490852584068</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1400666696383744</v>
+        <v>0.1400666696383743</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1052401037543236</v>
+        <v>0.1041465214946855</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2348846540986296</v>
+        <v>0.2325017924121789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1044785068137912</v>
+        <v>0.1070404943757837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1445961391592895</v>
+        <v>0.1451672711528177</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07766141611442087</v>
+        <v>0.07598901152440374</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1344966750094475</v>
+        <v>0.1332653037250382</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1027435456821525</v>
+        <v>0.1032241079951146</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1000096610949982</v>
+        <v>0.09978772581308329</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09481614967493561</v>
+        <v>0.0935440473494845</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1830635993786297</v>
+        <v>0.1814767631698296</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1122002828242294</v>
+        <v>0.1128886181720622</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.124257539694584</v>
+        <v>0.1239928953077625</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1557238081752528</v>
+        <v>0.1552310449931628</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.299749705147869</v>
+        <v>0.2973460600541599</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1707563024484497</v>
+        <v>0.1732691982303339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2064509730226363</v>
+        <v>0.2068418819045593</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.115815176918563</v>
+        <v>0.1148814425348586</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1780608268848508</v>
+        <v>0.176859638789958</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.157188290688075</v>
+        <v>0.1605181156497036</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1372182472506414</v>
+        <v>0.1341127194540329</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1263537466740866</v>
+        <v>0.1245899790933588</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2202852676543769</v>
+        <v>0.2205155893667454</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1536794685956872</v>
+        <v>0.153956518824844</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1574535247209514</v>
+        <v>0.1555372853585725</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04393487725955857</v>
+        <v>0.04401258772838907</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08804421120615347</v>
+        <v>0.08745246441126435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0857821266890606</v>
+        <v>0.08606450489818203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06829763798080039</v>
+        <v>0.06891102352498427</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04727182554969427</v>
+        <v>0.04654545703745883</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07876407246105301</v>
+        <v>0.07826749161529871</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0740797962006547</v>
+        <v>0.0737909468397191</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04033117675294456</v>
+        <v>0.04108767803667641</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04991297880209068</v>
+        <v>0.05018286570119551</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08808039840992503</v>
+        <v>0.08664803933652274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08338660155476794</v>
+        <v>0.08430391829554218</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0565424822314262</v>
+        <v>0.05741961900513437</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06872581947754472</v>
+        <v>0.06904201754851544</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1188612658151493</v>
+        <v>0.118072222467213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1149124757921884</v>
+        <v>0.1143260184756917</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09713355854886221</v>
+        <v>0.09790992118402393</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07365021419243134</v>
+        <v>0.07274451789812586</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1087509320968895</v>
+        <v>0.110004219448573</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1023429449915723</v>
+        <v>0.1024402579015304</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05753925791300946</v>
+        <v>0.05882347342753155</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0665226205264509</v>
+        <v>0.06817728913377483</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1089926746570652</v>
+        <v>0.1088586748293578</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.103787264785309</v>
+        <v>0.1036068483250197</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07433696520122587</v>
+        <v>0.0750450172159263</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01730659509009207</v>
+        <v>0.01690728477861669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01766606089613927</v>
+        <v>0.01898012726228783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01669986699324368</v>
+        <v>0.01569145463176689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01942992702995831</v>
+        <v>0.01927361616275359</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01490595391228798</v>
+        <v>0.01470715001263431</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03017717460975695</v>
+        <v>0.02851808202123872</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03052616643462159</v>
+        <v>0.02932994242625414</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.013257522444507</v>
+        <v>0.01421130264916516</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01959005888200014</v>
+        <v>0.0197498654317829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02946655454823515</v>
+        <v>0.02938048558079533</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02667235940441054</v>
+        <v>0.02575640486282281</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0188750167822784</v>
+        <v>0.01944758612940893</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05770768791560573</v>
+        <v>0.0575098021755602</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05620079175435071</v>
+        <v>0.05602251395308942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04564684772190446</v>
+        <v>0.04842665069374343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05415206476542114</v>
+        <v>0.0523971539411596</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0463362828033594</v>
+        <v>0.04804439061136383</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07456547367151223</v>
+        <v>0.07259036501135285</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07124472710300679</v>
+        <v>0.06891825863938887</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03284939320261285</v>
+        <v>0.03551367698227739</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0456576062389051</v>
+        <v>0.04588339186749402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05788968231459558</v>
+        <v>0.05820069995963207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05121184410239758</v>
+        <v>0.05083208020989929</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03801231427817601</v>
+        <v>0.03767447346717358</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.09281122158936894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08542305696577564</v>
+        <v>0.08542305696577562</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06705302343728228</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1236384405984089</v>
+        <v>0.1225701342871849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08132890560135023</v>
+        <v>0.08119469934498884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07539609103231876</v>
+        <v>0.07564112934156447</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09794257412832669</v>
+        <v>0.09877469829494402</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07810191444414954</v>
+        <v>0.07912764051322072</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05161165470979067</v>
+        <v>0.05191038387053967</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1131652280420041</v>
+        <v>0.1135493980423177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0834393063519121</v>
+        <v>0.08321307689938101</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06496161730522337</v>
+        <v>0.0651233343331631</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.149300812362594</v>
+        <v>0.1485886251121211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1051223191422703</v>
+        <v>0.1039345616860018</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09710121479960437</v>
+        <v>0.09791758309917188</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1220257328453555</v>
+        <v>0.1221046013698339</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.101299979076139</v>
+        <v>0.1002480635135854</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0654424123432833</v>
+        <v>0.06483950795287627</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1306100331174248</v>
+        <v>0.1306324235649259</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09961743537739817</v>
+        <v>0.09951304290734772</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07727851632988714</v>
+        <v>0.07808392729099248</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>72637</v>
+        <v>71882</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>183275</v>
+        <v>181416</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47790</v>
+        <v>48962</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>77517</v>
+        <v>77823</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>74474</v>
+        <v>72870</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>151902</v>
+        <v>150511</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>65510</v>
+        <v>65816</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>78652</v>
+        <v>78477</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>156367</v>
+        <v>154269</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>349594</v>
+        <v>346563</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>122862</v>
+        <v>123616</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>164335</v>
+        <v>163985</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>107481</v>
+        <v>107141</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>233888</v>
+        <v>232012</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>78107</v>
+        <v>79257</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>110677</v>
+        <v>110887</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>111062</v>
+        <v>110167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>201103</v>
+        <v>199747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>100224</v>
+        <v>102347</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>107914</v>
+        <v>105472</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>208378</v>
+        <v>205469</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>420675</v>
+        <v>421115</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>168282</v>
+        <v>168586</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>208238</v>
+        <v>205704</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57750</v>
+        <v>57852</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148194</v>
+        <v>147198</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>145449</v>
+        <v>145927</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>146593</v>
+        <v>147909</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>64913</v>
+        <v>63916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>125017</v>
+        <v>124229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>126582</v>
+        <v>126088</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>85086</v>
+        <v>86682</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>134148</v>
+        <v>134874</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>288059</v>
+        <v>283374</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>283871</v>
+        <v>286994</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>240649</v>
+        <v>244382</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>90337</v>
+        <v>90752</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>200064</v>
+        <v>198736</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>194841</v>
+        <v>193847</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>208485</v>
+        <v>210152</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>101136</v>
+        <v>99892</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>172613</v>
+        <v>174602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>174875</v>
+        <v>175042</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>121390</v>
+        <v>124100</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>178789</v>
+        <v>183236</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>356450</v>
+        <v>356012</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>353321</v>
+        <v>352706</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>316384</v>
+        <v>319397</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7830</v>
+        <v>7649</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7755</v>
+        <v>8332</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8322</v>
+        <v>7819</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13655</v>
+        <v>13545</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6093</v>
+        <v>6012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12758</v>
+        <v>12056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15517</v>
+        <v>14909</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9631</v>
+        <v>10324</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16871</v>
+        <v>17009</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>25393</v>
+        <v>25319</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26850</v>
+        <v>25928</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26977</v>
+        <v>27795</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26109</v>
+        <v>26019</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24672</v>
+        <v>24594</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22747</v>
+        <v>24132</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38058</v>
+        <v>36824</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18941</v>
+        <v>19640</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31523</v>
+        <v>30688</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36215</v>
+        <v>35033</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23863</v>
+        <v>25799</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39321</v>
+        <v>39515</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49887</v>
+        <v>50155</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>51552</v>
+        <v>51170</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>54328</v>
+        <v>53846</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>358854</v>
+        <v>355753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>215627</v>
+        <v>215272</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>255236</v>
+        <v>256065</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>307481</v>
+        <v>310093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>222953</v>
+        <v>225881</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>186967</v>
+        <v>188049</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>683727</v>
+        <v>686048</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>459412</v>
+        <v>458166</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>455241</v>
+        <v>456374</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>433338</v>
+        <v>431271</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>278711</v>
+        <v>275562</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>328714</v>
+        <v>331477</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>383088</v>
+        <v>383335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>289175</v>
+        <v>286172</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>237070</v>
+        <v>234886</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>789126</v>
+        <v>789261</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>548488</v>
+        <v>547913</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>541556</v>
+        <v>547200</v>
       </c>
     </row>
     <row r="20">
